--- a/Assignment 4/Ass4_Q2.xlsx
+++ b/Assignment 4/Ass4_Q2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63b4494e1d5d5d9b/Desktop/FALL 2018/CEE 598 Traffic Simulation Planning Modeling ^0 Application/ASSIGNMENT SUBMISSION/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronty\OneDrive\Desktop\FALL 2018\CEE 598 Traffic Simulation Planning Modeling &amp; Application\ASSIGNMENT SUBMISSION\Assignment 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{0A2F4B8F-2B61-4951-A34D-51E033F36751}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{065A8584-2E0E-449A-A3D6-E928E5E185B8}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{0A2F4B8F-2B61-4951-A34D-51E033F36751}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{9CCE18CD-DF7A-4AB5-9C93-92056C7784DC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{DEDD814D-B0BC-4D07-ABEF-1EBE001BB51A}"/>
   </bookViews>
@@ -931,7 +931,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1867,10 +1866,10 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2197,7 +2196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BA2F26-84FB-400A-840F-6B7CB861B6BD}">
   <dimension ref="B1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
